--- a/src/users.xlsx
+++ b/src/users.xlsx
@@ -34,10 +34,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>苏卫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sw1234</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -46,15 +42,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>慕苏杭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>msh1234</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>苏州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>msh</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -407,7 +407,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -432,13 +432,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="D2" s="1">
         <v>17726781042</v>
@@ -447,13 +447,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="D3" s="1">
         <v>17726781042</v>
